--- a/app/config/tables/beneficiary_entities/forms/beneficiary_entities/beneficiary_entities.xlsx
+++ b/app/config/tables/beneficiary_entities/forms/beneficiary_entities/beneficiary_entities.xlsx
@@ -168,7 +168,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>We are not giving volunteers the ability to create or edit authorizations</t>
+    <t>Base table should never be filled with survey</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/beneficiary_entities/forms/beneficiary_entities/beneficiary_entities.xlsx
+++ b/app/config/tables/beneficiary_entities/forms/beneficiary_entities/beneficiary_entities.xlsx
@@ -15,10 +15,9 @@
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
-    <sheet name="table_specific_translations" sheetId="4" r:id="rId4"/>
-    <sheet name="properties" sheetId="5" r:id="rId5"/>
+    <sheet name="properties" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -108,30 +107,6 @@
     <t>status_reason</t>
   </si>
   <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Beneficiary Entity ID</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Custom Beneficiary Entity Form ID</t>
-  </si>
-  <si>
-    <t>Custom Beneficiary Entity Row ID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Status Reason</t>
-  </si>
-  <si>
     <t>partition</t>
   </si>
   <si>
@@ -160,66 +135,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>id_number</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>mobile_provider</t>
-  </si>
-  <si>
-    <t>Mobile Provider</t>
-  </si>
-  <si>
-    <t>delivery_site</t>
-  </si>
-  <si>
-    <t>Delivery Site</t>
-  </si>
-  <si>
-    <t>hh_size</t>
-  </si>
-  <si>
-    <t>Household Size</t>
-  </si>
-  <si>
-    <t>disabled_reason</t>
-  </si>
-  <si>
-    <t>Disabled Reason</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>tent_caravan</t>
-  </si>
-  <si>
-    <t>Tent/Caravan Code</t>
   </si>
 </sst>
 </file>
@@ -890,168 +805,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1059,13 +815,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
@@ -1076,36 +832,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
